--- a/実験/比較実験方法、目的等のメモ.xlsx
+++ b/実験/比較実験方法、目的等のメモ.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1821086\GitHub\1821086_matsuo_thesis\実験\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,78 +27,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
-  <si>
-    <t xml:space="preserve">実験環境(ハードウェア)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実験の目的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自作した動的ロードバランサと一般的に使用されているLBを比較し応答速度が向上したのかを実験で調査する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機器名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用途</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi 4B 4G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理的に冗長化したWEBサーバ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspbian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設計・開発した動的ロードバランサ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nginx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実験手順</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異種のコンピュータを再現する為性能を下げる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変更点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コマンド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">説明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">備考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBサーバ１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.81</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+  <si>
+    <t>実験環境(ハードウェア)</t>
+  </si>
+  <si>
+    <t>実験の目的</t>
+  </si>
+  <si>
+    <t>自作した動的ロードバランサと一般的に使用されているLBを比較し応答速度が向上したのかを実験で調査する</t>
+  </si>
+  <si>
+    <t>機器名</t>
+  </si>
+  <si>
+    <t>台数</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>WEBサーバ</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B 4G</t>
+  </si>
+  <si>
+    <t>物理的に冗長化したWEBサーバ</t>
+  </si>
+  <si>
+    <t>Raspbian</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>設計・開発した動的ロードバランサ</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>実験手順</t>
+  </si>
+  <si>
+    <t>異種のコンピュータを再現する為性能を下げる</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>変更点</t>
+  </si>
+  <si>
+    <t>コマンド</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>WEBサーバ１</t>
+  </si>
+  <si>
+    <t>192.168.1.81</t>
   </si>
   <si>
     <r>
@@ -104,7 +109,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">メモリ：4G→1Gへ(3</t>
+      <t>メモリ：4G→1Gへ(3</t>
     </r>
     <r>
       <rPr>
@@ -114,7 +119,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Gのメモリを獲得</t>
+      <t>Gのメモリを獲得</t>
     </r>
     <r>
       <rPr>
@@ -124,127 +129,163 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">stress -m 1 --vm-bytes 3221225472 --vm-hang 0 -q &amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3221225472byteは３GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://qiita.com/hana_shin/items/b1d8cd559d1a326f4d42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBサーバ２</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU使用率を最大に</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress -c 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">引数は4/4コアすべてにCPU負荷100％を掛けるという設定。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://brown.ap.teacup.com/nekosan0/4116.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBサーバ３</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークトラフィック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo tc qdisc add dev wlan0 root tbf limit 200b buffer 100b rate 200bps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wi－Fi接続なのでwlan0,パケットサイズ等を制限している</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo tc qdisc add dev wlan0 root tbf limit 1000b buffer 700b rate 50bps</t>
+    <t>stress -m 1 --vm-bytes 3221225472 --vm-hang 0 -q &amp;</t>
+  </si>
+  <si>
+    <t>3221225472byteは３GB</t>
+  </si>
+  <si>
+    <t>https://qiita.com/hana_shin/items/b1d8cd559d1a326f4d42</t>
+  </si>
+  <si>
+    <t>WEBサーバ２</t>
+  </si>
+  <si>
+    <t>192.168.1.82</t>
+  </si>
+  <si>
+    <t>CPU使用率を最大に</t>
+  </si>
+  <si>
+    <t>stress -c 4</t>
+  </si>
+  <si>
+    <t>引数は4/4コアすべてにCPU負荷100％を掛けるという設定。</t>
+  </si>
+  <si>
+    <t>https://brown.ap.teacup.com/nekosan0/4116.html</t>
+  </si>
+  <si>
+    <t>WEBサーバ３</t>
+  </si>
+  <si>
+    <t>192.168.1.83</t>
+  </si>
+  <si>
+    <t>ネットワークトラフィック</t>
+  </si>
+  <si>
+    <t>sudo tc qdisc add dev wlan0 root tbf limit 200b buffer 100b rate 200bps</t>
+  </si>
+  <si>
+    <t>Wi－Fi接続なのでwlan0,パケットサイズ等を制限している</t>
+  </si>
+  <si>
+    <t>sudo tc qdisc add dev wlan0 root tbf limit 1000b buffer 700b rate 50bps</t>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サーバ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択頻度</t>
+    <rPh sb="0" eb="4">
+      <t>センタクヒンド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ラウンドロビン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>平均速度</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイキンソクド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>192.168.1.81</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>割り振り方法</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.4304秒</t>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>25回</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>24回</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>50回</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12回</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>11回</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>提案システムのプロトタイプ</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.1523秒</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游明朝"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="游明朝"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="游明朝"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -256,9 +297,15 @@
       <charset val="128"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -273,84 +320,75 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -409,14 +447,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85680</xdr:colOff>
@@ -429,9 +483,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -447,7 +501,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
+            <a:srgbClr val="FFFFFF">
               <a:shade val="50000"/>
             </a:srgbClr>
           </a:solidFill>
@@ -455,23 +509,30 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -480,7 +541,7 @@
             <a:t>１</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -489,7 +550,7 @@
             <a:t>.</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -498,7 +559,7 @@
             <a:t>シート２を参考に</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -507,7 +568,7 @@
             <a:t>WEB</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -516,7 +577,7 @@
             <a:t>サーバを不均一にする</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -524,28 +585,28 @@
             </a:rPr>
             <a:t> 。</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -554,7 +615,7 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -562,7 +623,7 @@
             </a:rPr>
             <a:t>応答速度データ計測</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -572,12 +633,15 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
           <a:br/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -586,7 +650,7 @@
             <a:t>2-1-1.</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -594,7 +658,7 @@
             </a:rPr>
             <a:t>コンフィグの設定を変更し重み付けを等しくする。これでラウンドロビンとして割り振られる。</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -604,12 +668,15 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
           <a:br/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -618,7 +685,7 @@
             <a:t>2-1-2.Page load time</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -626,9 +693,12 @@
             </a:rPr>
             <a:t>拡張機能を使い、ページの表示にかかった時間を計測。</a:t>
           </a:r>
+          <a:r>
+            <a:t/>
+          </a:r>
           <a:br/>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -636,9 +706,12 @@
             </a:rPr>
             <a:t>キャッシュが残ると誤差が生じるので毎回手動で削除。</a:t>
           </a:r>
+          <a:r>
+            <a:t/>
+          </a:r>
           <a:br/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -647,7 +720,7 @@
             <a:t>ping</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -656,7 +729,7 @@
             <a:t>計測ソフトは自動で収取してくれるので便利だが、</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -665,7 +738,7 @@
             <a:t>ping</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -674,7 +747,7 @@
             <a:t>は</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -683,7 +756,7 @@
             <a:t>IP</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -691,7 +764,7 @@
             </a:rPr>
             <a:t>アドレスしか指定できないので、ロードバランサ自体の応答速度を返すと思われるためこの方法にした。</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -701,10 +774,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -714,11 +787,11 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -727,7 +800,7 @@
             <a:t>2-1-3.30</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -736,7 +809,7 @@
             <a:t>分に</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -745,7 +818,7 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -754,7 +827,7 @@
             <a:t>回この作業を繰り返す。</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -763,7 +836,7 @@
             <a:t>5</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -771,7 +844,7 @@
             </a:rPr>
             <a:t>回位データが取れれば終了</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -781,10 +854,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -794,11 +867,11 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -807,7 +880,7 @@
             <a:t>2-2-1.</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -816,7 +889,7 @@
             <a:t>自作ロードバランサーに切り替える。</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -824,7 +897,7 @@
             </a:rPr>
             <a:t>cd workspace→sudo bash load roop_method2.sh</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -834,10 +907,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -847,11 +920,11 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -860,7 +933,7 @@
             <a:t>2-2-2.2-1-2.Page load time</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -868,7 +941,7 @@
             </a:rPr>
             <a:t>拡張機能を使い、ページの表示にかかった時間を計測。</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -878,10 +951,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -891,11 +964,11 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -904,7 +977,7 @@
             <a:t>2-2-3.30</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -913,7 +986,7 @@
             <a:t>分に</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -922,7 +995,7 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -931,7 +1004,7 @@
             <a:t>回この作業を繰り返す。</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -940,7 +1013,7 @@
             <a:t>5</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -948,7 +1021,7 @@
             </a:rPr>
             <a:t>回位データが取れれば終了</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -958,10 +1031,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -971,11 +1044,11 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -984,7 +1057,7 @@
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -992,7 +1065,7 @@
             </a:rPr>
             <a:t>表示にかかった時間の平均を求めて比較実験終了！</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1002,10 +1075,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1015,10 +1088,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1028,10 +1101,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1041,10 +1114,10 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
             <a:tabLst>
-              <a:tab algn="l" pos="0"/>
+              <a:tab pos="0" algn="l"/>
             </a:tabLst>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1056,8 +1129,8 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495360</xdr:colOff>
@@ -1070,9 +1143,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1088,7 +1161,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
+            <a:srgbClr val="FFFFFF">
               <a:shade val="50000"/>
             </a:srgbClr>
           </a:solidFill>
@@ -1096,23 +1169,30 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1120,9 +1200,12 @@
             </a:rPr>
             <a:t>監視コマンド</a:t>
           </a:r>
+          <a:r>
+            <a:t/>
+          </a:r>
           <a:br/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1130,18 +1213,18 @@
             </a:rPr>
             <a:t>watch -n 1 vcgencmd measure_temp</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1149,7 +1232,7 @@
             </a:rPr>
             <a:t>vmstat 1 100</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1157,7 +1240,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>324000</xdr:colOff>
@@ -1170,9 +1253,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1188,7 +1271,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
+            <a:srgbClr val="FFFFFF">
               <a:shade val="50000"/>
             </a:srgbClr>
           </a:solidFill>
@@ -1196,23 +1279,30 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1220,9 +1310,12 @@
             </a:rPr>
             <a:t>制限解除コマンド</a:t>
           </a:r>
+          <a:r>
+            <a:t/>
+          </a:r>
           <a:br/>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1230,7 +1323,7 @@
             </a:rPr>
             <a:t>sudo tc qdisc del dev wlan0 root</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1241,47 +1334,305 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="30.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.62"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="10" max="10" width="17.90625" customWidth="1"/>
+    <col min="11" max="11" width="5.26953125" customWidth="1"/>
+    <col min="12" max="12" width="30.36328125" customWidth="1"/>
+    <col min="13" max="13" width="8.36328125" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1298,11 +1649,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="1">
         <v>3</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1315,11 +1666,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="1">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1332,81 +1683,74 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="63.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="53.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="45.12"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" customWidth="1"/>
+    <col min="5" max="5" width="63.90625" customWidth="1"/>
+    <col min="6" max="6" width="53.08984375" customWidth="1"/>
+    <col min="7" max="7" width="45.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1416,94 +1760,235 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://qiita.com/hana_shin/items/b1d8cd559d1a326f4d42"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://brown.ap.teacup.com/nekosan0/4116.html"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="A10:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H4:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="0" t="s">
+    <row r="4" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="0" t="s">
+    <row r="5" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>